--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Smith.Fall.111020.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Smith.Fall.111020.xlsx_with_dialog_acts.xlsx
@@ -1067,12 +1067,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1319,12 +1319,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1659,12 +1659,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2037,12 +2037,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2079,12 +2079,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2331,12 +2331,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2717,12 +2717,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2759,12 +2759,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3263,12 +3263,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4605,12 +4605,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5025,12 +5025,12 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5233,12 +5233,12 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6033,12 +6033,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6159,12 +6159,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6327,12 +6327,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6537,12 +6537,12 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7801,12 +7801,12 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7927,12 +7927,12 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7969,12 +7969,12 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8011,12 +8011,12 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8179,12 +8179,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8351,12 +8351,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8435,12 +8435,12 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8603,12 +8603,12 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8645,12 +8645,12 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10083,12 +10083,12 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10255,12 +10255,12 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10637,12 +10637,12 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10763,12 +10763,12 @@
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10805,12 +10805,12 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11015,12 +11015,12 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11057,12 +11057,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11519,12 +11519,12 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11687,12 +11687,12 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12149,12 +12149,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12401,12 +12401,12 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12741,12 +12741,12 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12783,12 +12783,12 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12909,12 +12909,12 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12993,12 +12993,12 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13081,12 +13081,12 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13123,12 +13123,12 @@
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13501,12 +13501,12 @@
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13627,12 +13627,12 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13669,12 +13669,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13711,12 +13711,12 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13917,12 +13917,12 @@
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14713,12 +14713,12 @@
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14965,12 +14965,12 @@
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15091,12 +15091,12 @@
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15469,12 +15469,12 @@
       <c r="H357" t="inlineStr"/>
       <c r="I357" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -15637,12 +15637,12 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15931,12 +15931,12 @@
       <c r="H368" t="inlineStr"/>
       <c r="I368" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16645,12 +16645,12 @@
       <c r="H385" t="inlineStr"/>
       <c r="I385" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16981,12 +16981,12 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18263,12 +18263,12 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18463,12 +18463,12 @@
       <c r="H429" t="inlineStr"/>
       <c r="I429" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19183,12 +19183,12 @@
       <c r="H447" t="inlineStr"/>
       <c r="I447" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19547,12 +19547,12 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19707,12 +19707,12 @@
       <c r="H460" t="inlineStr"/>
       <c r="I460" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19947,12 +19947,12 @@
       <c r="H466" t="inlineStr"/>
       <c r="I466" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
